--- a/resource/file/牌证申请表.xlsx
+++ b/resource/file/牌证申请表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6695D3-FD15-45AE-A44E-03941E96E4B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77525445-95CB-40CE-9C82-2444AE5A2442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="牌证申请表" sheetId="2" r:id="rId1"/>
@@ -147,56 +147,56 @@
     <t>姓名/名称</t>
   </si>
   <si>
-    <t>代    
-理       
+    <t>固定电话</t>
+  </si>
+  <si>
+    <t>邮寄地址</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>申请人信息栏</t>
+  </si>
+  <si>
+    <t>编号：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              机动车牌证申请表</t>
+  </si>
+  <si>
+    <t>${owner}</t>
+  </si>
+  <si>
+    <t>${postcode}</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>${tel}</t>
+  </si>
+  <si>
+    <t>${platType}</t>
+  </si>
+  <si>
+    <t>${platnum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${today}                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>机
+动
+车
+所
+有
 人</t>
   </si>
   <si>
-    <t>固定电话</t>
-  </si>
-  <si>
-    <t>邮寄地址</t>
-  </si>
-  <si>
-    <t>邮政编码</t>
-  </si>
-  <si>
-    <t>机
-动   
-车      
-所       
-有      
+    <t>代
+理
 人</t>
-  </si>
-  <si>
-    <t>申请人信息栏</t>
-  </si>
-  <si>
-    <t>编号：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              机动车牌证申请表</t>
-  </si>
-  <si>
-    <t>${owner}</t>
-  </si>
-  <si>
-    <t>${postcode}</t>
-  </si>
-  <si>
-    <t>${address}</t>
-  </si>
-  <si>
-    <t>${tel}</t>
-  </si>
-  <si>
-    <t>${platType}</t>
-  </si>
-  <si>
-    <t>${platnum}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${today}                                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
@@ -489,130 +489,130 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,14 +645,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="286564" cy="220980"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
@@ -661,7 +666,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D405DF-ACD2-4C15-8FEE-5D1482177C63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -720,20 +725,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>102042</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>67586</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="327660" cy="274320"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -742,7 +752,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79589E3-C037-4124-A2C2-17820C521962}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -801,7 +811,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1073,407 +1083,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC4863-8E36-48F1-9282-0D55AFBE3659}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="21" t="s">
+      <c r="J3" s="42"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="21" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
       <c r="N7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="30" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
       <c r="O12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="21" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="21" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="H8:J8"/>
@@ -1484,23 +1494,17 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="F21:J21"/>
@@ -1511,6 +1515,12 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:E22"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D15:J15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.38888888888888901" header="0.30902777777777801" footer="0.30902777777777801"/>
@@ -1527,15 +1537,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>327660</xdr:rowOff>
+                    <xdr:rowOff>323850</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1549,13 +1559,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
